--- a/medicine/Psychotrope/Coffee_and_Cigarettes/Coffee_and_Cigarettes.xlsx
+++ b/medicine/Psychotrope/Coffee_and_Cigarettes/Coffee_and_Cigarettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coffee and Cigarettes est un long-métrage en noir et blanc de Jim Jarmusch sorti en 2003. Il est composé de onze courts-métrages où divers acteurs sont au centre d'histoires indépendantes, sur le thème « boire du café en fumant des cigarettes », dans un lieu unique comme un bar ou un restaurant.
 Le premier court-métrage de Coffee and cigarettes avec Roberto Benigni et Steven Wright est tourné en 1986 puis Jim Jarmusch a ajouté régulièrement de nouveaux « épisodes » sans pour autant penser à les regrouper un jour en un long-métrage. Le tournage s'est donc étalé entre 1986 et 2003, soit 17 ans.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les interlocuteurs discutent de sujets aussi variés que la caféine, les glaces à l'eau, Abbott et Costello, les théories du complot contre Elvis Presley, l'art de préparer le thé anglais, les inventions de Nikola Tesla, le groupe rock imaginaire Sqürl, le Paris des années 1920 ou l'utilisation de la nicotine comme insecticide.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Coffee and Cigarettes
@@ -561,7 +577,7 @@
 Format : noir et blanc - 1.85:1 - 16 mm et 35 mm - son Dolby Digital / DTS
 Genre : comédie dramatique, anthologie, musical, film à sketches
 Durée : 95 minutes
-Dates de sortie[1] :
+Dates de sortie :
 Italie : 5 septembre 2003 (Mostra de Venise)
 France : 7 avril 2004
 Suisse : 7 avril 2004 (Suisse romande)
@@ -595,43 +611,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Strange to Meet You
-Roberto Benigni (VF : Vincent Ropion) : Roberto
-Steven Wright (VF : Patrick Borg) : Steven
-Twins
-Joie Lee : Good Twin
-Cinqué Lee (VF : Daniel Lobé) : Evil Twin
-Steve Buscemi (VF : Vincent Ropion) : Danny
-Somewhere in California
-Iggy Pop (VF : Pierre Laurent) : Iggy
-Tom Waits (VF : Philippe Catoire) : Tom
-Those Things'll Kill Ya
-Joseph Rigano : Joe
-Vinny Vella : Vinny
-Vinny Vella Junior : Vinny Jr.
-Renée
-Renée French : Renée
-E. J. Rodriguez : le serveur
-No Problem
-Alex Descas (VF : Sidney Kotto) : Alex
-Isaac de Bankolé : Isaac
-Cousins
-Cate Blanchett (VF : Déborah Perret) (Cate) / (VF : Isabelle Gardien) (Shelly) : Cate / Shelly
-Michael Hogan : le serveur
-Jack Shows Meg His Tesla Coil
-Jack White (VF : Didier Cherbuy) : Jack
-Meg White : Meg
-Cousins ?
-Alfred Molina (VF : Patrick Borg) : Alfred
-Steve Coogan (VF : Jean-Pol Brissart) : Steve
-Katy Hansz : Katy
-Delirium
-GZA (VF : Asto Montcho) : GZA
-RZA (VF : Xavier Fagnon) : RZA
-Bill Murray (VF : Bernard Métraux) : Bill
-Champagne
-William Rice (VF : Philippe Ogouz) : Bill
-Taylor Mead (VF : Roger Carel) : Taylor</t>
+          <t>Strange to Meet You</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roberto Benigni (VF : Vincent Ropion) : Roberto
+Steven Wright (VF : Patrick Borg) : Steven</t>
         </is>
       </c>
     </row>
@@ -656,77 +643,457 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Twins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Joie Lee : Good Twin
+Cinqué Lee (VF : Daniel Lobé) : Evil Twin
+Steve Buscemi (VF : Vincent Ropion) : Danny</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Somewhere in California</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Iggy Pop (VF : Pierre Laurent) : Iggy
+Tom Waits (VF : Philippe Catoire) : Tom</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Those Things'll Kill Ya</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Joseph Rigano : Joe
+Vinny Vella : Vinny
+Vinny Vella Junior : Vinny Jr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Renée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Renée French : Renée
+E. J. Rodriguez : le serveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No Problem</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Alex Descas (VF : Sidney Kotto) : Alex
+Isaac de Bankolé : Isaac</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cousins</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cate Blanchett (VF : Déborah Perret) (Cate) / (VF : Isabelle Gardien) (Shelly) : Cate / Shelly
+Michael Hogan : le serveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jack Shows Meg His Tesla Coil</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jack White (VF : Didier Cherbuy) : Jack
+Meg White : Meg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cousins ?</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Alfred Molina (VF : Patrick Borg) : Alfred
+Steve Coogan (VF : Jean-Pol Brissart) : Steve
+Katy Hansz : Katy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Delirium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>GZA (VF : Asto Montcho) : GZA
+RZA (VF : Xavier Fagnon) : RZA
+Bill Murray (VF : Bernard Métraux) : Bill</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Champagne</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>William Rice (VF : Philippe Ogouz) : Bill
+Taylor Mead (VF : Roger Carel) : Taylor</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1986, Jim Jarmusch est contacté par le Saturday Night Live pour réaliser un sketch. Il tourne alors Coffee and cigarettes avec Roberto Benigni et Steven Wright[2].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1986, Jim Jarmusch est contacté par le Saturday Night Live pour réaliser un sketch. Il tourne alors Coffee and cigarettes avec Roberto Benigni et Steven Wright.
 Les trois premières saynètes de ce film étaient auparavant sorties sous forme de courts-métrages :
 1986 : Coffee and Cigarettes I, avec Roberto Benigni et Steven Wright
 1989 : Coffee and Cigarettes II, avec Steve Buscemi et Cinqué Lee
 1993 : Coffee and Cigarettes III, avec Tom Waits et Iggy Pop (qui reçoit la Palme d'or du court-métrage lors du festival de Cannes 1993)
-Jim Jarmusch a ajouté régulièrement de nouveaux épisodes à cette « série », sans pour autant penser un jour à la regrouper en un long métrage[2]. Le tournage s'est donc étalé entre 1986 et 2003, soit 17 ans[1].
+Jim Jarmusch a ajouté régulièrement de nouveaux épisodes à cette « série », sans pour autant penser un jour à la regrouper en un long métrage. Le tournage s'est donc étalé entre 1986 et 2003, soit 17 ans.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Coffee_and_Cigarettes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">La bande originale est composée de chansons de pop rock, jazz, funk, etc.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Coffee_and_Cigarettes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coffee_and_Cigarettes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est dédié à la mémoire de Joe Strummer, décédé en décembre 2002 ; celui-ci, proche de Jim Jarmusch, avait joué dans son film Mystery Train. Les bonus du DVD proposent par ailleurs le clip du morceau Midnight Jam de Joe Strummer and The Mescaleros, réalisé par Adam Bhala Lough.
 </t>
